--- a/Downer/29267/res_F2LSIP ITP 7 - Sealing.xlsx
+++ b/Downer/29267/res_F2LSIP ITP 7 - Sealing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\28974\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\29267\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2503D963-AC3F-4C9D-A930-88DC40533677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EB95FB-A108-48CE-90FD-C31511F4242C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="900" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9195" yWindow="1185" windowWidth="29010" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="119">
   <si>
     <t>type</t>
   </si>
@@ -58,9 +58,6 @@
     <t>itp</t>
   </si>
   <si>
-    <t>F2LSIP - ITP 7 - Sealing</t>
-  </si>
-  <si>
     <t>checklist</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>Inspection Point: Quality Control Activity - Design Review</t>
   </si>
   <si>
-    <t>Acceptance Criteria - Designer to approve sealing design</t>
-  </si>
-  <si>
     <t>Verifying Document - NTC confirming acceptance</t>
   </si>
   <si>
@@ -289,12 +283,6 @@
     <t>Inspection Point: Quality Control Activity - Visual Site Inspection</t>
   </si>
   <si>
-    <t>Acceptance Criteria - Basecourse (prime seal) - To be prepped to a tight, uniform surface, swept to remove any dust and other foreign objects.</t>
-  </si>
-  <si>
-    <t>○ Prime or previouis seal - Full surface swept with a power broom to remove excess chip and any other foreign material</t>
-  </si>
-  <si>
     <t>Verifying Document - Site Inspection Form</t>
   </si>
   <si>
@@ -307,9 +295,6 @@
     <t>Inspection Point: Quality Control Activity - Degree of Saturation test TNZB/02 Clause 12</t>
   </si>
   <si>
-    <t>Acceptance Criteria - Compliant as per TNZ B/02 Clause 12 DOS at each of minimim 5 points &lt; 80%</t>
-  </si>
-  <si>
     <t>Verifying Document - Testing results</t>
   </si>
   <si>
@@ -322,9 +307,6 @@
     <t>Inspection Point: Quality Control Activity - Onsite check &amp; Document</t>
   </si>
   <si>
-    <t>Acceptance Criteria - The road shall be reasonably dry before the binder is applied, and no spraying shall be carried out when the air temperature measured within the confines of the sealing course is below 10 degrees C in the shade</t>
-  </si>
-  <si>
     <t>Verifying Document - Sealing Checklist</t>
   </si>
   <si>
@@ -371,6 +353,33 @@
   </si>
   <si>
     <t>Frequency - Prior to construction of next layer/ Prior removal of the temporary speed restriction signs</t>
+  </si>
+  <si>
+    <t>Pre-Construction</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Require formal sign off record of previous layer prior to placment of next layer. DNZ to develop sign off sheet or approval system of work. Bitumen distributors shall possess a current Certificate of Compliance with the BCA E/2 Specification for Performance of Bitumen Distributors administered by the New Zealand Bitumen Contractors' Association Inc.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Designer to approve sealing design, prior to sealing.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Basecourse/Subbase (Membrane seal) - To be prepped to a tight, uniform surface, swept to remove any dust and other foreign objects.</t>
+  </si>
+  <si>
+    <t>○ Prime or previous seal - Full surface swept with a power broom to remove excess chip and any other foreign material. The Contractor shall give the Engineer 24 hours’ notice of its intention to seal</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Compliant as per TNZ B/02 Clause 12 DOS at each of minimim 5 points &lt; 70%</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - The road shall be reasonably dry before the binder is applied, and no spraying shall be carried out when the pavement surface temperature is below 10 degrees C.</t>
+  </si>
+  <si>
+    <t>F2LSIP - ITP 07 - Sealing</t>
+  </si>
+  <si>
+    <t>d425488c-c498-4445-a3c2-36f0aeca200a</t>
   </si>
 </sst>
 </file>
@@ -519,7 +528,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,6 +730,17 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
       </patternFill>
     </fill>
   </fills>
@@ -884,13 +904,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1246,16 +1268,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="186.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="210" style="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1263,7 +1285,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,12 +1311,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -1304,119 +1326,122 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1424,7 +1449,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1432,7 +1457,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1440,7 +1465,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1448,7 +1473,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1456,23 +1481,23 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1480,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1488,7 +1513,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1496,7 +1521,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1512,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1520,7 +1545,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1528,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1536,15 +1561,15 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1552,7 +1577,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1560,7 +1585,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1568,7 +1593,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1601,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,7 +1617,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,7 +1625,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,15 +1633,15 @@
         <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1624,7 +1649,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1632,7 +1657,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1640,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1648,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1656,7 +1681,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1664,7 +1689,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,7 +1697,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,7 +1705,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,15 +1713,15 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1704,7 +1729,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1712,7 +1737,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1720,7 +1745,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1728,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1736,7 +1761,7 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1744,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1752,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1760,31 +1785,31 @@
         <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1792,7 +1817,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1800,7 +1825,7 @@
         <v>8</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1808,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1816,7 +1841,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1824,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1832,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1840,7 +1865,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1848,7 +1873,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1856,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1864,7 +1889,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1872,7 +1897,7 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1880,7 +1905,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1888,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1896,7 +1921,7 @@
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1904,7 +1929,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1912,7 +1937,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1920,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1928,7 +1953,7 @@
         <v>9</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1936,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1944,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1952,15 +1977,15 @@
         <v>9</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1968,7 +1993,7 @@
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1976,7 +2001,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +2017,7 @@
         <v>9</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2025,7 @@
         <v>9</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2033,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2016,7 +2041,7 @@
         <v>9</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2024,7 +2049,7 @@
         <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2032,7 +2057,7 @@
         <v>9</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,7 +2065,7 @@
         <v>9</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2048,7 +2073,7 @@
         <v>9</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2056,7 +2081,7 @@
         <v>9</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,7 +2089,7 @@
         <v>9</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2072,7 +2097,7 @@
         <v>9</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2080,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2088,7 +2113,7 @@
         <v>9</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2104,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,31 +2137,31 @@
         <v>9</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +2169,7 @@
         <v>9</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +2177,7 @@
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +2185,7 @@
         <v>9</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2193,7 @@
         <v>9</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2201,7 @@
         <v>9</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2209,7 @@
         <v>9</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2217,7 @@
         <v>9</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2225,7 @@
         <v>9</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2241,7 @@
         <v>9</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2249,7 @@
         <v>9</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2257,7 @@
         <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2265,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2273,7 @@
         <v>9</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2281,7 @@
         <v>9</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2289,7 @@
         <v>9</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2297,7 @@
         <v>9</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2305,7 @@
         <v>9</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2313,7 @@
         <v>9</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2321,7 @@
         <v>9</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2329,7 @@
         <v>9</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,47 +2337,47 @@
         <v>9</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>83</v>
+      <c r="B133" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,15 +2385,15 @@
         <v>9</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>85</v>
+      <c r="A135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2401,7 @@
         <v>9</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2409,7 @@
         <v>9</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,39 +2417,39 @@
         <v>9</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B139" s="5" t="s">
+      <c r="A139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="B141" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>88</v>
+      <c r="B142" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,23 +2457,23 @@
         <v>9</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>90</v>
+      <c r="A144" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>91</v>
+      <c r="A145" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2481,7 @@
         <v>9</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2489,7 @@
         <v>9</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,39 +2497,39 @@
         <v>9</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B149" s="5" t="s">
+      <c r="A149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="B151" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>94</v>
+      <c r="B152" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,15 +2537,15 @@
         <v>9</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>96</v>
+      <c r="A154" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2553,7 @@
         <v>9</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2561,7 @@
         <v>9</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,47 +2569,47 @@
         <v>9</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B158" s="5" t="s">
+      <c r="A158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+      <c r="B160" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>99</v>
+      <c r="B162" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,15 +2617,15 @@
         <v>9</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>101</v>
+      <c r="A164" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2633,7 @@
         <v>9</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2641,7 @@
         <v>9</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,15 +2649,15 @@
         <v>9</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>104</v>
+      <c r="A168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,15 +2665,15 @@
         <v>9</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2681,7 @@
         <v>9</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2689,7 @@
         <v>9</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2697,7 @@
         <v>9</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2705,7 @@
         <v>9</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,15 +2713,15 @@
         <v>9</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>107</v>
+      <c r="A176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,15 +2729,15 @@
         <v>9</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>108</v>
+      <c r="A178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2745,7 @@
         <v>9</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2753,7 @@
         <v>9</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2761,7 @@
         <v>9</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,15 +2777,15 @@
         <v>9</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>110</v>
+      <c r="A184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,15 +2793,15 @@
         <v>9</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>111</v>
+      <c r="A186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -2784,7 +2809,7 @@
         <v>9</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -2792,7 +2817,7 @@
         <v>9</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -2800,7 +2825,7 @@
         <v>9</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -2808,7 +2833,7 @@
         <v>9</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -2816,15 +2841,15 @@
         <v>9</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>113</v>
+      <c r="A192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -2832,15 +2857,15 @@
         <v>9</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>114</v>
+      <c r="A194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2873,7 @@
         <v>9</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2856,7 +2881,7 @@
         <v>9</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -2864,7 +2889,7 @@
         <v>9</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,7 +2897,7 @@
         <v>9</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2880,7 +2905,23 @@
         <v>9</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>40</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
